--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H2">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I2">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J2">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>144.2190770454324</v>
+        <v>144.42671719609</v>
       </c>
       <c r="R2">
-        <v>144.2190770454324</v>
+        <v>577.7068687843599</v>
       </c>
       <c r="S2">
-        <v>0.01798170281418057</v>
+        <v>0.01595567705138133</v>
       </c>
       <c r="T2">
-        <v>0.01798170281418057</v>
+        <v>0.008959605662560644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H3">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I3">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J3">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>32.92398558323873</v>
+        <v>35.44755599032666</v>
       </c>
       <c r="R3">
-        <v>32.92398558323873</v>
+        <v>212.68533594196</v>
       </c>
       <c r="S3">
-        <v>0.004105069428711302</v>
+        <v>0.003916101997073725</v>
       </c>
       <c r="T3">
-        <v>0.004105069428711302</v>
+        <v>0.003298518406504338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H4">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I4">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J4">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>51.52845745888639</v>
+        <v>55.28987337017666</v>
       </c>
       <c r="R4">
-        <v>51.52845745888639</v>
+        <v>331.73924022106</v>
       </c>
       <c r="S4">
-        <v>0.006424735392024107</v>
+        <v>0.006108200621278061</v>
       </c>
       <c r="T4">
-        <v>0.006424735392024107</v>
+        <v>0.005144915069873655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H5">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I5">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J5">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>29.75269339202491</v>
+        <v>32.22764283699333</v>
       </c>
       <c r="R5">
-        <v>29.75269339202491</v>
+        <v>193.36585702196</v>
       </c>
       <c r="S5">
-        <v>0.003709662420931227</v>
+        <v>0.003560379071250188</v>
       </c>
       <c r="T5">
-        <v>0.003709662420931227</v>
+        <v>0.002998894285549038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H6">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I6">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J6">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>73.99951525856879</v>
+        <v>75.17293982328665</v>
       </c>
       <c r="R6">
-        <v>73.99951525856879</v>
+        <v>451.03763893972</v>
       </c>
       <c r="S6">
-        <v>0.009226499843386339</v>
+        <v>0.008304801037572546</v>
       </c>
       <c r="T6">
-        <v>0.009226499843386339</v>
+        <v>0.006995103576275329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H7">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I7">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J7">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>10.2416454627387</v>
+        <v>12.279435381185</v>
       </c>
       <c r="R7">
-        <v>10.2416454627387</v>
+        <v>49.11774152474</v>
       </c>
       <c r="S7">
-        <v>0.001276961611542922</v>
+        <v>0.00135658214158175</v>
       </c>
       <c r="T7">
-        <v>0.001276961611542922</v>
+        <v>0.0007617627881476984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H8">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J8">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>1075.710455240248</v>
+        <v>1167.352042988521</v>
       </c>
       <c r="R8">
-        <v>1075.710455240248</v>
+        <v>7004.112257931124</v>
       </c>
       <c r="S8">
-        <v>0.1341230724569364</v>
+        <v>0.128964311900176</v>
       </c>
       <c r="T8">
-        <v>0.1341230724569364</v>
+        <v>0.1086261688032556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H9">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J9">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>245.5755247200204</v>
+        <v>286.5105411769206</v>
       </c>
       <c r="R9">
-        <v>245.5755247200204</v>
+        <v>2578.594870592286</v>
       </c>
       <c r="S9">
-        <v>0.03061915382082745</v>
+        <v>0.03165252077722362</v>
       </c>
       <c r="T9">
-        <v>0.03061915382082745</v>
+        <v>0.03999120393465874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H10">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J10">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>384.3437467947793</v>
+        <v>446.8892452053856</v>
       </c>
       <c r="R10">
-        <v>384.3437467947793</v>
+        <v>4022.003206848471</v>
       </c>
       <c r="S10">
-        <v>0.04792122633800527</v>
+        <v>0.04937050853653091</v>
       </c>
       <c r="T10">
-        <v>0.04792122633800527</v>
+        <v>0.0623768984826933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H11">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J11">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>221.9212881474496</v>
+        <v>260.4850780855873</v>
       </c>
       <c r="R11">
-        <v>221.9212881474496</v>
+        <v>2344.365702770286</v>
       </c>
       <c r="S11">
-        <v>0.02766986679820772</v>
+        <v>0.02877733333088595</v>
       </c>
       <c r="T11">
-        <v>0.02766986679820772</v>
+        <v>0.03635856411029446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H12">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J12">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>551.9523067068043</v>
+        <v>607.5973101363445</v>
       </c>
       <c r="R12">
-        <v>551.9523067068043</v>
+        <v>5468.375791227101</v>
       </c>
       <c r="S12">
-        <v>0.06881920582307274</v>
+        <v>0.06712488275047464</v>
       </c>
       <c r="T12">
-        <v>0.06881920582307274</v>
+        <v>0.08480856529745713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H13">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J13">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>76.39103875045078</v>
+        <v>99.2505005809265</v>
       </c>
       <c r="R13">
-        <v>76.39103875045078</v>
+        <v>595.5030034855589</v>
       </c>
       <c r="S13">
-        <v>0.009524682757777103</v>
+        <v>0.01096479214650509</v>
       </c>
       <c r="T13">
-        <v>0.009524682757777103</v>
+        <v>0.00923560437030679</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H14">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I14">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J14">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>859.5246017019687</v>
+        <v>939.6790720272875</v>
       </c>
       <c r="R14">
-        <v>859.5246017019687</v>
+        <v>5638.074432163725</v>
       </c>
       <c r="S14">
-        <v>0.1071683182691067</v>
+        <v>0.1038119268809013</v>
       </c>
       <c r="T14">
-        <v>0.1071683182691067</v>
+        <v>0.08744040678389123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H15">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I15">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J15">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>196.2221376992989</v>
+        <v>230.6313344600984</v>
       </c>
       <c r="R15">
-        <v>196.2221376992989</v>
+        <v>2075.682010140886</v>
       </c>
       <c r="S15">
-        <v>0.02446561327362037</v>
+        <v>0.02547921300169294</v>
       </c>
       <c r="T15">
-        <v>0.02446561327362037</v>
+        <v>0.03219157205256518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H16">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I16">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J16">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>307.1020684712452</v>
+        <v>359.7307888017301</v>
       </c>
       <c r="R16">
-        <v>307.1020684712452</v>
+        <v>3237.577099215571</v>
       </c>
       <c r="S16">
-        <v>0.03829048307617746</v>
+        <v>0.03974159631258627</v>
       </c>
       <c r="T16">
-        <v>0.03829048307617746</v>
+        <v>0.05021130209538163</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H17">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I17">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J17">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>177.3217001609631</v>
+        <v>209.6817133465428</v>
       </c>
       <c r="R17">
-        <v>177.3217001609631</v>
+        <v>1887.135420118886</v>
       </c>
       <c r="S17">
-        <v>0.02210904535046502</v>
+        <v>0.02316478395888048</v>
       </c>
       <c r="T17">
-        <v>0.02210904535046502</v>
+        <v>0.02926741936043547</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H18">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I18">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J18">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>441.0262857161624</v>
+        <v>489.0953675752557</v>
       </c>
       <c r="R18">
-        <v>441.0262857161624</v>
+        <v>4401.858308177301</v>
       </c>
       <c r="S18">
-        <v>0.05498858934239093</v>
+        <v>0.05403326949377409</v>
       </c>
       <c r="T18">
-        <v>0.05498858934239093</v>
+        <v>0.06826803826432656</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H19">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I19">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J19">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>61.03870873033062</v>
+        <v>79.89330968690983</v>
       </c>
       <c r="R19">
-        <v>61.03870873033062</v>
+        <v>479.359858121459</v>
       </c>
       <c r="S19">
-        <v>0.007610504400914801</v>
+        <v>0.00882628832586136</v>
       </c>
       <c r="T19">
-        <v>0.007610504400914801</v>
+        <v>0.007434350414193248</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H20">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I20">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J20">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>656.4765793106743</v>
+        <v>666.3612731541405</v>
       </c>
       <c r="R20">
-        <v>656.4765793106743</v>
+        <v>3998.167638924843</v>
       </c>
       <c r="S20">
-        <v>0.08185163152802365</v>
+        <v>0.07361688668419455</v>
       </c>
       <c r="T20">
-        <v>0.08185163152802365</v>
+        <v>0.0620072347295372</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H21">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I21">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J21">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>149.8680055076879</v>
+        <v>163.5492310459871</v>
       </c>
       <c r="R21">
-        <v>149.8680055076879</v>
+        <v>1471.943079413884</v>
       </c>
       <c r="S21">
-        <v>0.01868602955727049</v>
+        <v>0.01806825470545395</v>
       </c>
       <c r="T21">
-        <v>0.01868602955727049</v>
+        <v>0.02282823740184102</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H22">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I22">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J22">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>234.5544444103534</v>
+        <v>255.0984411108637</v>
       </c>
       <c r="R22">
-        <v>234.5544444103534</v>
+        <v>2295.885969997774</v>
       </c>
       <c r="S22">
-        <v>0.02924500974169693</v>
+        <v>0.02818223955855416</v>
       </c>
       <c r="T22">
-        <v>0.02924500974169693</v>
+        <v>0.03560669614448331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H23">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I23">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J23">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>135.432473868369</v>
+        <v>148.6930779050982</v>
       </c>
       <c r="R23">
-        <v>135.432473868369</v>
+        <v>1338.237701145884</v>
       </c>
       <c r="S23">
-        <v>0.01688616059942686</v>
+        <v>0.01642700725246327</v>
       </c>
       <c r="T23">
-        <v>0.01688616059942686</v>
+        <v>0.02075461230064469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H24">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I24">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J24">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>336.8413502763563</v>
+        <v>346.8356607411764</v>
       </c>
       <c r="R24">
-        <v>336.8413502763563</v>
+        <v>3121.520946670588</v>
       </c>
       <c r="S24">
-        <v>0.04199847329690403</v>
+        <v>0.03831699494474482</v>
       </c>
       <c r="T24">
-        <v>0.04199847329690403</v>
+        <v>0.04841139730334573</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H25">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I25">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J25">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N25">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O25">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P25">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q25">
-        <v>46.61935520342683</v>
+        <v>56.65530833267433</v>
       </c>
       <c r="R25">
-        <v>46.61935520342683</v>
+        <v>339.931849996046</v>
       </c>
       <c r="S25">
-        <v>0.005812652582658401</v>
+        <v>0.006259048329508513</v>
       </c>
       <c r="T25">
-        <v>0.005812652582658401</v>
+        <v>0.005271973543465238</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H26">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I26">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J26">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N26">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O26">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P26">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q26">
-        <v>103.3342548750447</v>
+        <v>116.2415322904277</v>
       </c>
       <c r="R26">
-        <v>103.3342548750447</v>
+        <v>697.449193742566</v>
       </c>
       <c r="S26">
-        <v>0.01288405043046066</v>
+        <v>0.01284189231183322</v>
       </c>
       <c r="T26">
-        <v>0.01288405043046066</v>
+        <v>0.01081667898246292</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H27">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I27">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J27">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N27">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O27">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P27">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q27">
-        <v>23.59032929248967</v>
+        <v>28.52988909712511</v>
       </c>
       <c r="R27">
-        <v>23.59032929248967</v>
+        <v>256.769001874126</v>
       </c>
       <c r="S27">
-        <v>0.002941318855428374</v>
+        <v>0.003151866258425055</v>
       </c>
       <c r="T27">
-        <v>0.002941318855428374</v>
+        <v>0.003982208153422853</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H28">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I28">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J28">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N28">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O28">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P28">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q28">
-        <v>36.9205993094594</v>
+        <v>44.49993550685678</v>
       </c>
       <c r="R28">
-        <v>36.9205993094594</v>
+        <v>400.499419561711</v>
       </c>
       <c r="S28">
-        <v>0.004603380205345486</v>
+        <v>0.004916172115098981</v>
       </c>
       <c r="T28">
-        <v>0.004603380205345486</v>
+        <v>0.006211310720449068</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H29">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I29">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J29">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N29">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O29">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P29">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q29">
-        <v>21.31807015532369</v>
+        <v>25.93834893023622</v>
       </c>
       <c r="R29">
-        <v>21.31807015532369</v>
+        <v>233.445140372126</v>
       </c>
       <c r="S29">
-        <v>0.002658006208042248</v>
+        <v>0.002865563427679267</v>
       </c>
       <c r="T29">
-        <v>0.002658006208042248</v>
+        <v>0.00362048041072554</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H30">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I30">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J30">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N30">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O30">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P30">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q30">
-        <v>53.02131262391744</v>
+        <v>60.50277872044244</v>
       </c>
       <c r="R30">
-        <v>53.02131262391744</v>
+        <v>544.525008483982</v>
       </c>
       <c r="S30">
-        <v>0.006610869421392124</v>
+        <v>0.006684101229441373</v>
       </c>
       <c r="T30">
-        <v>0.006610869421392124</v>
+        <v>0.008444991072522711</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H31">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I31">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J31">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N31">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O31">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P31">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q31">
-        <v>7.338230310911591</v>
+        <v>9.883077120919834</v>
       </c>
       <c r="R31">
-        <v>7.338230310911591</v>
+        <v>59.298462725519</v>
       </c>
       <c r="S31">
-        <v>0.0009149543828466987</v>
+        <v>0.001091842215046633</v>
       </c>
       <c r="T31">
-        <v>0.0009149543828466987</v>
+        <v>0.0009196547092034244</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H32">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I32">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J32">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N32">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O32">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P32">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q32">
-        <v>536.2837948172719</v>
+        <v>650.1306794109829</v>
       </c>
       <c r="R32">
-        <v>536.2837948172719</v>
+        <v>2600.522717643932</v>
       </c>
       <c r="S32">
-        <v>0.06686560488407028</v>
+        <v>0.07182379661647262</v>
       </c>
       <c r="T32">
-        <v>0.06686560488407028</v>
+        <v>0.04033128101046901</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H33">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I33">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J33">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N33">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O33">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P33">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q33">
-        <v>122.4290176501835</v>
+        <v>159.5656545191753</v>
       </c>
       <c r="R33">
-        <v>122.4290176501835</v>
+        <v>957.393927115052</v>
       </c>
       <c r="S33">
-        <v>0.01526484745512654</v>
+        <v>0.01762816535214562</v>
       </c>
       <c r="T33">
-        <v>0.01526484745512654</v>
+        <v>0.01484813927992787</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H34">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I34">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J34">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N34">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O34">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P34">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q34">
-        <v>191.6104115575961</v>
+        <v>248.8849960488703</v>
       </c>
       <c r="R34">
-        <v>191.6104115575961</v>
+        <v>1493.309976293222</v>
       </c>
       <c r="S34">
-        <v>0.02389060828371627</v>
+        <v>0.02749580338725308</v>
       </c>
       <c r="T34">
-        <v>0.02389060828371627</v>
+        <v>0.02315961475013931</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H35">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I35">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J35">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N35">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O35">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P35">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q35">
-        <v>110.6364542416494</v>
+        <v>145.0713534185087</v>
       </c>
       <c r="R35">
-        <v>110.6364542416494</v>
+        <v>870.4281205110519</v>
       </c>
       <c r="S35">
-        <v>0.0137945123581765</v>
+        <v>0.0160268938427079</v>
       </c>
       <c r="T35">
-        <v>0.0137945123581765</v>
+        <v>0.01349939413701839</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H36">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I36">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J36">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N36">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O36">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P36">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q36">
-        <v>275.16984348057</v>
+        <v>338.3877677859273</v>
       </c>
       <c r="R36">
-        <v>275.16984348057</v>
+        <v>2030.326606715564</v>
       </c>
       <c r="S36">
-        <v>0.03430906957845423</v>
+        <v>0.03738370604657244</v>
       </c>
       <c r="T36">
-        <v>0.03430906957845423</v>
+        <v>0.03148815903929716</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H37">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I37">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J37">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N37">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O37">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P37">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q37">
-        <v>38.08392486245327</v>
+        <v>55.2753522488095</v>
       </c>
       <c r="R37">
-        <v>38.08392486245327</v>
+        <v>221.101408995238</v>
       </c>
       <c r="S37">
-        <v>0.004748427412681922</v>
+        <v>0.006106596386774525</v>
       </c>
       <c r="T37">
-        <v>0.004748427412681922</v>
+        <v>0.003429042552674426</v>
       </c>
     </row>
   </sheetData>
